--- a/output_week_saleonly.xlsx
+++ b/output_week_saleonly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,282 +467,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18672.22299999996</v>
+        <v>28341.79400000015</v>
       </c>
       <c r="B2" t="n">
-        <v>3254.825000000011</v>
+        <v>5935.029000000098</v>
       </c>
       <c r="C2" t="n">
-        <v>4691.336000000025</v>
+        <v>5776.177000000009</v>
       </c>
       <c r="D2" t="n">
-        <v>1646.743000000002</v>
+        <v>3218.193999999991</v>
       </c>
       <c r="E2" t="n">
-        <v>6357.006999999999</v>
+        <v>13242.18600000007</v>
       </c>
       <c r="F2" t="n">
-        <v>4743.144999999995</v>
+        <v>10932.92000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28478.35500000006</v>
+        <v>28399.28700000001</v>
       </c>
       <c r="B3" t="n">
-        <v>5562.979000000053</v>
+        <v>5972.904000000094</v>
       </c>
       <c r="C3" t="n">
-        <v>7502.503000000025</v>
+        <v>5769.620000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>2764.437999999996</v>
+        <v>3265.275999999982</v>
       </c>
       <c r="E3" t="n">
-        <v>11015.83200000005</v>
+        <v>13041.7340000001</v>
       </c>
       <c r="F3" t="n">
-        <v>8851.52500000006</v>
+        <v>10892.2880000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21541.23900000002</v>
+        <v>28362.56800000002</v>
       </c>
       <c r="B4" t="n">
-        <v>4553.793000000032</v>
+        <v>5906.234000000056</v>
       </c>
       <c r="C4" t="n">
-        <v>5448.974000000001</v>
+        <v>5824.851000000012</v>
       </c>
       <c r="D4" t="n">
-        <v>2309.04499999999</v>
+        <v>3143.523999999989</v>
       </c>
       <c r="E4" t="n">
-        <v>8938.16500000007</v>
+        <v>13115.64700000005</v>
       </c>
       <c r="F4" t="n">
-        <v>7602.507000000103</v>
+        <v>10797.26200000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10957.90300000011</v>
+        <v>28336.11500000029</v>
       </c>
       <c r="B5" t="n">
-        <v>2368.152999999994</v>
+        <v>6092.293000000061</v>
       </c>
       <c r="C5" t="n">
-        <v>2594.157000000001</v>
+        <v>5834.31600000002</v>
       </c>
       <c r="D5" t="n">
-        <v>1155.189000000001</v>
+        <v>3252.293000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>5006.064000000015</v>
+        <v>13008.65500000009</v>
       </c>
       <c r="F5" t="n">
-        <v>4324.053999999996</v>
+        <v>10762.79100000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7752.004000000047</v>
+        <v>28400.70399999986</v>
       </c>
       <c r="B6" t="n">
-        <v>1805.360999999992</v>
+        <v>5972.152000000067</v>
       </c>
       <c r="C6" t="n">
-        <v>1968.217999999995</v>
+        <v>5712.742000000027</v>
       </c>
       <c r="D6" t="n">
-        <v>866.2740000000003</v>
+        <v>3212.942999999992</v>
       </c>
       <c r="E6" t="n">
-        <v>3795.308000000007</v>
+        <v>13203.165</v>
       </c>
       <c r="F6" t="n">
-        <v>3118.820999999994</v>
+        <v>10702.19900000005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9124.83500000009</v>
+        <v>28323.03700000008</v>
       </c>
       <c r="B7" t="n">
-        <v>2091.95699999999</v>
+        <v>5890.02500000002</v>
       </c>
       <c r="C7" t="n">
-        <v>2158.293000000002</v>
+        <v>5926.451000000002</v>
       </c>
       <c r="D7" t="n">
-        <v>1050.703</v>
+        <v>3208.806999999991</v>
       </c>
       <c r="E7" t="n">
-        <v>4769.709000000006</v>
+        <v>13029.19400000002</v>
       </c>
       <c r="F7" t="n">
-        <v>3684.867999999993</v>
+        <v>11061.60000000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13452.46400000008</v>
+        <v>28336.04800000009</v>
       </c>
       <c r="B8" t="n">
-        <v>2965.161000000002</v>
+        <v>6021.140000000035</v>
       </c>
       <c r="C8" t="n">
-        <v>3083.613999999995</v>
+        <v>5763.39500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1562.731</v>
+        <v>3141.081999999991</v>
       </c>
       <c r="E8" t="n">
-        <v>6696.926000000044</v>
+        <v>13004.53100000011</v>
       </c>
       <c r="F8" t="n">
-        <v>5675.350999999986</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>18278.28699999997</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3897.289000000005</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3667.996000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2026.102999999998</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8697.063000000062</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7431.784000000036</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>20399.36600000001</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4324.173000000044</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3569.767000000007</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2408.378000000005</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9682.432000000084</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8624.047000000046</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19690.33899999997</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4027.671000000019</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2933.296999999997</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2319.461999999994</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9417.145000000059</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8112.507000000027</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>14157.29700000009</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3088.676999999998</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1612.314000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1851.276999999995</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7167.141000000036</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5897.699000000002</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12057.85200000007</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2918.681999999991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1029.016000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1784.427999999997</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7122.40300000002</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5731.920999999987</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4036.007999999998</v>
-      </c>
-      <c r="B14" t="n">
-        <v>921.2170000000021</v>
-      </c>
-      <c r="C14" t="n">
-        <v>342.6100000000004</v>
-      </c>
-      <c r="D14" t="n">
-        <v>683.6059999999998</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2942.073000000004</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2290.931000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>61.38100000000001</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9.839</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.457</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.742</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37.84399999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>42.56599999999999</v>
+        <v>10982.66600000008</v>
       </c>
     </row>
   </sheetData>
